--- a/dataset/Buku1.xlsx
+++ b/dataset/Buku1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahsanul Qalbi\Desktop\backup\skripsiFile\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC5945-0E55-499B-989A-1E41071280FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EEDCB7-B870-4A52-BC64-33888BECE547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3873C86-B034-4D7C-88B3-A223E4196BF5}"/>
   </bookViews>
@@ -195,300 +195,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lembar1!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Waktu Training</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Lembar1!$H$3:$H$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Model Random Forest Yelp</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Model Yelp setelah transfer learning Amazon</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Model Random Forest IMDB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Model IMDB setelah transfer learning Amazon</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Lembar1!$I$3:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>29.271999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.216999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.173999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.664000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4229-40EB-BFD6-DDC9FE7A8D1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="610335152"/>
-        <c:axId val="610326624"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="610335152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="610326624"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="610326624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="610335152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Lembar1!$H$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -727,6 +433,778 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Lembar1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Model Random Forest Yelp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model Yelp setelah transfer learning Amazon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model Random Forest IMDB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model IMDB setelah transfer learning Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar1!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.86240000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78159999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77039999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC48-471F-88EE-C1F660BFACC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Lembar1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Model Random Forest Yelp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model Yelp setelah transfer learning Amazon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model Random Forest IMDB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model IMDB setelah transfer learning Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar1!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC48-471F-88EE-C1F660BFACC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Lembar1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Model Random Forest Yelp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model Yelp setelah transfer learning Amazon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model Random Forest IMDB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model IMDB setelah transfer learning Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar1!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC48-471F-88EE-C1F660BFACC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Lembar1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Model Random Forest Yelp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model Yelp setelah transfer learning Amazon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model Random Forest IMDB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model IMDB setelah transfer learning Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DC48-471F-88EE-C1F660BFACC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="727834320"/>
+        <c:axId val="727833664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="727834320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727833664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="727833664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727834320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -783,7 +1261,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lembar1!$B$30</c:f>
+              <c:f>Lembar1!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -802,9 +1280,67 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Lembar1!$A$31:$A$34</c:f>
+              <c:f>Lembar1!$A$16:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -824,28 +1360,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Lembar1!$B$31:$B$34</c:f>
+              <c:f>Lembar1!$B$16:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.85440000000000005</c:v>
+                  <c:v>0.86240000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85119999999999996</c:v>
+                  <c:v>0.86080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73819999999999997</c:v>
+                  <c:v>0.78159999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74480000000000002</c:v>
+                  <c:v>0.77839999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-754E-40D7-A126-3D452D26DB4E}"/>
+              <c16:uniqueId val="{00000000-FC5D-4F70-B5E4-34D29F60FD4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -854,7 +1390,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lembar1!$C$30</c:f>
+              <c:f>Lembar1!$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,9 +1409,67 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Lembar1!$A$31:$A$34</c:f>
+              <c:f>Lembar1!$A$16:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -895,28 +1489,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Lembar1!$C$31:$C$34</c:f>
+              <c:f>Lembar1!$C$16:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.85499999999999998</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85499999999999998</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73499999999999999</c:v>
+                  <c:v>0.78500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.745</c:v>
+                  <c:v>0.77500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-754E-40D7-A126-3D452D26DB4E}"/>
+              <c16:uniqueId val="{00000001-FC5D-4F70-B5E4-34D29F60FD4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -925,7 +1519,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lembar1!$D$30</c:f>
+              <c:f>Lembar1!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -944,9 +1538,67 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Lembar1!$A$31:$A$34</c:f>
+              <c:f>Lembar1!$A$16:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -966,28 +1618,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Lembar1!$D$31:$D$34</c:f>
+              <c:f>Lembar1!$D$16:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.85499999999999998</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.86499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.745</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-754E-40D7-A126-3D452D26DB4E}"/>
+              <c16:uniqueId val="{00000002-FC5D-4F70-B5E4-34D29F60FD4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -996,7 +1648,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lembar1!$E$30</c:f>
+              <c:f>Lembar1!$E$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1015,9 +1667,67 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Lembar1!$A$31:$A$34</c:f>
+              <c:f>Lembar1!$A$16:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1037,34 +1747,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Lembar1!$E$31:$E$34</c:f>
+              <c:f>Lembar1!$E$16:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.85499999999999998</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74</c:v>
+                  <c:v>0.78500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.745</c:v>
+                  <c:v>0.77500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-754E-40D7-A126-3D452D26DB4E}"/>
+              <c16:uniqueId val="{00000003-FC5D-4F70-B5E4-34D29F60FD4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1072,11 +1783,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="397090192"/>
-        <c:axId val="480977472"/>
+        <c:axId val="732904112"/>
+        <c:axId val="732911984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="397090192"/>
+        <c:axId val="732904112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1830,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480977472"/>
+        <c:crossAx val="732911984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1127,7 +1838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480977472"/>
+        <c:axId val="732911984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -1179,7 +1890,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397090192"/>
+        <c:crossAx val="732904112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1322,7 +2033,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lembar1!$B$46</c:f>
+              <c:f>Lembar1!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1341,9 +2052,67 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Lembar1!$A$47:$A$50</c:f>
+              <c:f>Lembar1!$A$31:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1363,28 +2132,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Lembar1!$B$47:$B$50</c:f>
+              <c:f>Lembar1!$B$31:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.82479999999999998</c:v>
+                  <c:v>0.85440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8296</c:v>
+                  <c:v>0.85119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66720000000000002</c:v>
+                  <c:v>0.73819999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66959999999999997</c:v>
+                  <c:v>0.74480000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE90-442F-B509-F414151FE9CD}"/>
+              <c16:uniqueId val="{00000000-FAFA-4B5A-BCAB-8B821323D075}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1393,7 +2162,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lembar1!$C$46</c:f>
+              <c:f>Lembar1!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1412,9 +2181,67 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Lembar1!$A$47:$A$50</c:f>
+              <c:f>Lembar1!$A$31:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1434,28 +2261,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Lembar1!$C$47:$C$50</c:f>
+              <c:f>Lembar1!$C$31:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.82499999999999996</c:v>
+                  <c:v>0.85499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83</c:v>
+                  <c:v>0.85499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67</c:v>
+                  <c:v>0.73499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67</c:v>
+                  <c:v>0.745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AE90-442F-B509-F414151FE9CD}"/>
+              <c16:uniqueId val="{00000001-FAFA-4B5A-BCAB-8B821323D075}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1464,7 +2291,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lembar1!$D$46</c:f>
+              <c:f>Lembar1!$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1483,9 +2310,67 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Lembar1!$A$47:$A$50</c:f>
+              <c:f>Lembar1!$A$31:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1505,28 +2390,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Lembar1!$D$47:$D$50</c:f>
+              <c:f>Lembar1!$D$31:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.82499999999999996</c:v>
+                  <c:v>0.85499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66500000000000004</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67</c:v>
+                  <c:v>0.745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AE90-442F-B509-F414151FE9CD}"/>
+              <c16:uniqueId val="{00000002-FAFA-4B5A-BCAB-8B821323D075}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1535,7 +2420,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lembar1!$E$46</c:f>
+              <c:f>Lembar1!$E$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1554,9 +2439,67 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Lembar1!$A$47:$A$50</c:f>
+              <c:f>Lembar1!$A$31:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1576,34 +2519,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Lembar1!$E$47:$E$50</c:f>
+              <c:f>Lembar1!$E$31:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.82499999999999996</c:v>
+                  <c:v>0.85499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66720000000000002</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66720000000000002</c:v>
+                  <c:v>0.745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AE90-442F-B509-F414151FE9CD}"/>
+              <c16:uniqueId val="{00000003-FAFA-4B5A-BCAB-8B821323D075}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1611,11 +2555,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="481676056"/>
-        <c:axId val="481673104"/>
+        <c:axId val="732918216"/>
+        <c:axId val="732912968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="481676056"/>
+        <c:axId val="732918216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +2602,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481673104"/>
+        <c:crossAx val="732912968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1666,10 +2610,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="481673104"/>
+        <c:axId val="732912968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.9"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1719,7 +2662,779 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481676056"/>
+        <c:crossAx val="732918216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar1!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Lembar1!$A$47:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Model Random Forest Yelp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model Yelp setelah transfer learning Amazon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model Random Forest IMDB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model IMDB setelah transfer learning Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar1!$B$47:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.82479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66959999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8989-49D3-861F-C1E0BBECACB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar1!$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Lembar1!$A$47:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Model Random Forest Yelp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model Yelp setelah transfer learning Amazon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model Random Forest IMDB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model IMDB setelah transfer learning Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar1!$C$47:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8989-49D3-861F-C1E0BBECACB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar1!$D$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Lembar1!$A$47:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Model Random Forest Yelp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model Yelp setelah transfer learning Amazon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model Random Forest IMDB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model IMDB setelah transfer learning Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar1!$D$47:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8989-49D3-861F-C1E0BBECACB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar1!$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Lembar1!$A$47:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Model Random Forest Yelp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model Yelp setelah transfer learning Amazon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model Random Forest IMDB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model IMDB setelah transfer learning Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar1!$E$47:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66720000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8989-49D3-861F-C1E0BBECACB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="732890992"/>
+        <c:axId val="732883776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="732890992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732883776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="732883776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732890992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1966,6 +3681,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3978,44 +5733,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>354106</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>147918</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>49306</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1062318</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Bagan 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63887C7-9227-43E8-9E44-DDF1CD2E31F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -4046,6 +6268,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>900953</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Bagan 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB2FE5C-F504-4462-9290-0CAD333376DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
@@ -4055,22 +6313,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>309282</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>658906</xdr:rowOff>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>94129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>197223</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>206187</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80684</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Bagan 7">
+        <xdr:cNvPr id="3" name="Bagan 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83299228-1063-45D4-B044-129A463195A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDCC9FC-9235-4B9B-ACD1-161C5467EAC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4091,22 +6349,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>309283</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>121023</xdr:rowOff>
+      <xdr:colOff>309282</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1017494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>286870</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>528918</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Bagan 8">
+        <xdr:cNvPr id="4" name="Bagan 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102B5C6A-2054-4BA9-82E0-F355E53B214E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56407289-119A-4E55-BA95-F96801780355}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4119,6 +6377,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>309282</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>138952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>510988</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Bagan 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82DCBDD-6902-4A27-BA9B-9B53DA3A1C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4426,8 +6720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6E0B7D-6AF9-49EA-B050-FCB6D5A3621B}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
